--- a/Python_Scripts/I125_Binding/data_files/125I-Radioactivity_Archive_blank.xlsx
+++ b/Python_Scripts/I125_Binding/data_files/125I-Radioactivity_Archive_blank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kealbert\Documents\Python Scripts\Trying stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kealbert\Documents\Python Scripts\Trying stuff\I125_Binding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729E8B7-6CAF-4027-AE86-CCEA2EFA49BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9523F-2131-4870-AED3-6AB2574FC912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Binding Type</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>SEC Pellet/Plate</t>
+  </si>
+  <si>
+    <t>Calibration Date</t>
+  </si>
+  <si>
+    <t>Decay Factor</t>
   </si>
 </sst>
 </file>
@@ -519,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +555,10 @@
     <col min="31" max="31" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.140625" customWidth="1"/>
     <col min="34" max="34" width="7.28515625" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,6 +648,12 @@
       </c>
       <c r="AH1" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
